--- a/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>5,92; 10,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>11,89; 18,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>9,5; 14,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,47; 88,87</t>
+          <t>11,44; 15,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>10,99; 16,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>22,56; 29,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>18,82; 25,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,93; 85,59</t>
+          <t>14,21; 23,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>9,27; 12,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>18,92; 23,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>15,38; 19,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>80,5; 86,02</t>
+          <t>13,94; 19,46</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>5,92; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>11,89; 18,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>9,5; 14,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,47; 88,87</t>
+          <t>11,44; 15,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>10,99; 16,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>22,56; 29,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>18,82; 25,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,93; 85,59</t>
+          <t>14,21; 23,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>9,27; 12,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>18,92; 23,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>15,38; 19,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,5; 86,02</t>
+          <t>13,94; 19,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,39</t>
+          <t>5,96; 10,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,5</t>
+          <t>11,73; 18,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,6</t>
+          <t>9,7; 14,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,24</t>
+          <t>11,12; 16,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,56; 29,13</t>
+          <t>22,85; 29,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,13</t>
+          <t>18,61; 24,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,92</t>
+          <t>9,39; 13,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,65</t>
+          <t>18,81; 23,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,79</t>
+          <t>15,43; 19,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,39</t>
+          <t>5,96; 10,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,5</t>
+          <t>11,73; 18,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,6</t>
+          <t>9,7; 14,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,24</t>
+          <t>11,12; 16,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,56; 29,13</t>
+          <t>22,85; 29,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,13</t>
+          <t>18,61; 24,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,92</t>
+          <t>9,39; 13,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,65</t>
+          <t>18,81; 23,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,79</t>
+          <t>15,43; 19,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,58</t>
+          <t>6,2; 10,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,75</t>
+          <t>11,98; 18,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,88</t>
+          <t>9,5; 14,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,35</t>
+          <t>11,13; 15,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,32</t>
+          <t>11,15; 16,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,4</t>
+          <t>22,45; 28,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,61; 24,98</t>
+          <t>18,76; 25,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,96</t>
+          <t>14,41; 24,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,09</t>
+          <t>9,36; 12,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,57</t>
+          <t>18,97; 23,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,67</t>
+          <t>15,45; 19,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 19,46</t>
+          <t>13,98; 19,5</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,58</t>
+          <t>6,2; 10,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,75</t>
+          <t>11,98; 18,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,88</t>
+          <t>9,5; 14,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,35</t>
+          <t>11,13; 15,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,32</t>
+          <t>11,15; 16,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,4</t>
+          <t>22,45; 28,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 24,98</t>
+          <t>18,76; 25,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,96</t>
+          <t>14,41; 24,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,09</t>
+          <t>9,36; 12,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,57</t>
+          <t>18,97; 23,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,67</t>
+          <t>15,45; 19,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,94; 19,46</t>
+          <t>13,98; 19,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,73</t>
+          <t>93,92; 98,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,4</t>
+          <t>88,32; 94,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,55</t>
+          <t>91,13; 96,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,53</t>
+          <t>91,26; 95,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,43</t>
+          <t>89,97; 95,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,45; 28,99</t>
+          <t>83,85; 91,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,76; 25,14</t>
+          <t>87,77; 93,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,07</t>
+          <t>91,56; 97,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,99</t>
+          <t>92,45; 96,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,56</t>
+          <t>87,27; 92,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,73</t>
+          <t>90,47; 94,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,5</t>
+          <t>92,01; 97,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>80,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>69,01%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,73</t>
+          <t>80,15; 89,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,4</t>
+          <t>69,79; 82,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,55</t>
+          <t>75,42; 84,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,53</t>
+          <t>74,07; 81,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,43</t>
+          <t>75,08; 84,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,45; 28,99</t>
+          <t>56,06; 66,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,76; 25,14</t>
+          <t>61,0; 72,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,07</t>
+          <t>59,52; 66,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,99</t>
+          <t>78,67; 85,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,56</t>
+          <t>62,83; 70,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,73</t>
+          <t>67,74; 75,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,5</t>
+          <t>66,48; 71,6</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92,06%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>85,07%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>88,15%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>86,87%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>86,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>74,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>78,31%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81,7%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>88,89%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>78,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>82,56%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>83,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>89,27; 93,8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>81,6; 88,02</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>85,45; 90,5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>84,71; 89,02</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>83,57; 88,85</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>71,01; 77,55</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>74,86; 81,24</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>76,46; 89,86</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>87,01; 90,64</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>76,44; 81,03</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>80,27; 84,55</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>81,1; 89,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,92; 98,1</t>
+          <t>93,99; 98,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,32; 94,77</t>
+          <t>88,55; 94,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,13; 96,29</t>
+          <t>91,18; 96,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91,26; 95,31</t>
+          <t>91,15; 95,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,97; 95,24</t>
+          <t>89,83; 95,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,85; 91,33</t>
+          <t>84,55; 91,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,77; 93,7</t>
+          <t>87,61; 93,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>91,56; 97,82</t>
+          <t>91,45; 98,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,15</t>
+          <t>92,59; 96,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>87,27; 92,12</t>
+          <t>87,47; 92,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,47; 94,3</t>
+          <t>90,34; 94,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>92,01; 97,05</t>
+          <t>92,3; 97,19</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,15; 89,75</t>
+          <t>80,8; 90,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,79; 82,28</t>
+          <t>70,27; 82,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,42; 84,66</t>
+          <t>75,4; 84,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,07; 81,9</t>
+          <t>73,91; 82,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,08; 84,35</t>
+          <t>75,27; 84,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,06; 66,17</t>
+          <t>55,73; 65,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,0; 72,01</t>
+          <t>60,61; 72,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,52; 66,29</t>
+          <t>59,54; 66,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>78,67; 85,51</t>
+          <t>78,56; 85,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,83; 70,99</t>
+          <t>63,1; 71,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>67,74; 75,44</t>
+          <t>67,65; 75,54</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>66,48; 71,6</t>
+          <t>66,41; 71,6</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>89,41; 94,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>81,53; 88,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>85,61; 90,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>84,71; 89,02</t>
+          <t>84,75; 88,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>83,56; 89,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>70,66; 77,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>74,82; 81,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>76,46; 89,86</t>
+          <t>76,29; 89,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>86,81; 90,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>76,52; 81,09</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>80,02; 84,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>81,1; 89,19</t>
+          <t>80,97; 88,5</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>282351</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>285215</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>315110</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>344103</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>318725</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>312423</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>343702</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>574391</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>601076</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>597638</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>658812</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>918494</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>274985; 287687</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>274316; 293521</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>304841; 322544</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>335591; 351126</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>308071; 326142</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>299314; 324677</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>330971; 354500</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>554095; 594833</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>588414; 611113</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>580602; 614890</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>643268; 672778</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>899024; 946702</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>180215</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>190886</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>206120</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>219106</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>267022</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>238102</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>265480</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>265370</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>447237</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>428989</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>471600</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>484476</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>169576; 189099</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>175581; 205670</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>193781; 216697</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>207072; 229988</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>251320; 282089</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>216760; 255777</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>242555; 288760</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>251208; 279287</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>427194; 464995</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>403089; 454648</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>444590; 496435</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>466254; 502695</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>462565</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>476102</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>521230</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>563210</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>585747</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>550525</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>609182</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>839761</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1048312</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1026627</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1130412</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1402970</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>449238; 472568</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>456251; 494339</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>506213; 535239</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>549445; 576379</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>565581; 602613</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>524999; 575445</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>582046; 633231</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>784166; 919250</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1023807; 1067262</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>996815; 1056237</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1095662; 1157194</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1357089; 1483384</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>